--- a/BIRK.xlsx
+++ b/BIRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D32D0F-316A-42B5-AEBA-E69CCCB24585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFA6088-7154-45D8-A0C9-72D9875F460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{18F8973A-4B1D-45B3-BBD1-81233DF5C159}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{18F8973A-4B1D-45B3-BBD1-81233DF5C159}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Birkenstock Holding</t>
   </si>
@@ -123,9 +123,6 @@
     <t>DTC</t>
   </si>
   <si>
-    <t>Corpotate/Other</t>
-  </si>
-  <si>
     <t>America</t>
   </si>
   <si>
@@ -203,6 +200,15 @@
   <si>
     <t>Corporate/other Growth</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Largest Shareholder: Catterton Management Company (135,109868 Shares)</t>
+  </si>
+  <si>
+    <t>In 2021 bought majority stake in BIRK together with Groupe Arnault</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +248,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +280,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -276,6 +291,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -612,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B407F59-63B9-4237-A3CE-A07280429F0F}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,13 +647,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2">
-        <v>51.12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -647,7 +664,7 @@
         <v>187.82920200000001</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -659,7 +676,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>9601.8288062400006</v>
+        <v>10706.264514</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,10 +687,10 @@
         <v>23</v>
       </c>
       <c r="I5" s="4">
-        <v>298.59399999999999</v>
+        <v>235.399</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,11 +698,11 @@
         <v>24</v>
       </c>
       <c r="I6" s="4">
-        <f>23.21+1179.45</f>
-        <v>1202.6600000000001</v>
+        <f>1170.874+29.721</f>
+        <v>1200.595</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -694,7 +711,22 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>10505.894806240001</v>
+        <v>11671.460514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -707,13 +739,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05227C9-86FF-4681-812C-4D0390C0B72A}">
-  <dimension ref="A1:AU317"/>
+  <dimension ref="A1:AU316"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,13 +817,17 @@
       <c r="C3" s="4">
         <v>140.41</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>362.524</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
         <v>182.04499999999999</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>432.48399999999998</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -845,13 +881,17 @@
       <c r="C4" s="4">
         <v>160.655</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>117.773</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
         <v>178.517</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>140.70500000000001</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -903,15 +943,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="4">
-        <v>1.859</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>181.453</v>
+      </c>
+      <c r="D5" s="4">
+        <v>254.04599999999999</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <v>1.157</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>210.7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>312.524</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -920,13 +964,13 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4">
-        <v>3.282</v>
+        <v>667.38699999999994</v>
       </c>
       <c r="Q5" s="4">
-        <v>5.29</v>
+        <v>804.69</v>
       </c>
       <c r="R5" s="4">
-        <v>4.282</v>
+        <v>943.71</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -963,15 +1007,19 @@
         <v>29</v>
       </c>
       <c r="C6" s="4">
-        <v>181.453</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>87.528000000000006</v>
+      </c>
+      <c r="D6" s="4">
+        <v>189.51900000000001</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <v>210.7</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>102.759</v>
+      </c>
+      <c r="H6" s="4">
+        <v>212.845</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -980,13 +1028,13 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4">
-        <v>667.38699999999994</v>
+        <v>449.13099999999997</v>
       </c>
       <c r="Q6" s="4">
-        <v>804.69</v>
+        <v>529.50699999999995</v>
       </c>
       <c r="R6" s="4">
-        <v>943.71</v>
+        <v>644.88800000000003</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -1023,15 +1071,19 @@
         <v>30</v>
       </c>
       <c r="C7" s="4">
-        <v>87.528000000000006</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>32.084000000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>36.731999999999999</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
-        <v>102.759</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>47.103000000000002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>47.82</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1040,13 +1092,13 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4">
-        <v>449.13099999999997</v>
+        <v>123.033</v>
       </c>
       <c r="Q7" s="4">
-        <v>529.50699999999995</v>
+        <v>152.42400000000001</v>
       </c>
       <c r="R7" s="4">
-        <v>644.88800000000003</v>
+        <v>211.81</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1083,15 +1135,19 @@
         <v>31</v>
       </c>
       <c r="C8" s="4">
-        <v>32.084000000000003</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>1.859</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.94699999999999995</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
-        <v>47.103000000000002</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>1.157</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.141</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1100,13 +1156,13 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4">
-        <v>123.033</v>
+        <v>3.282</v>
       </c>
       <c r="Q8" s="4">
-        <v>152.42400000000001</v>
+        <v>5.29</v>
       </c>
       <c r="R8" s="4">
-        <v>211.81</v>
+        <v>4.282</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -1142,33 +1198,67 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4">
-        <v>1.859</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>1.157</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4">
-        <v>3.282</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>5.29</v>
-      </c>
-      <c r="R9" s="4">
-        <v>4.282</v>
-      </c>
-      <c r="S9" s="4"/>
+      <c r="C9" s="5">
+        <v>302.92399999999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>481.24400000000003</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:Q9" si="0">+SUM(E5:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>361.71899999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>574.33000000000004</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="0"/>
+        <v>1242.8329999999999</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="0"/>
+        <v>1491.9110000000001</v>
+      </c>
+      <c r="R9" s="5">
+        <f>+SUM(R5:R8)</f>
+        <v>1804.6899999999998</v>
+      </c>
+      <c r="S9" s="5">
+        <f>+SUM(S5:S8)</f>
+        <v>0</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -1202,71 +1292,37 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5">
-        <f t="shared" ref="C10:Q10" si="0">+SUM(C6:C9)</f>
-        <v>302.92399999999998</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="0"/>
-        <v>361.71899999999999</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="0"/>
-        <v>1242.8329999999999</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="0"/>
-        <v>1491.9110000000001</v>
-      </c>
-      <c r="R10" s="5">
-        <f>+SUM(R6:R9)</f>
-        <v>1804.6899999999998</v>
-      </c>
-      <c r="S10" s="5">
-        <f>+SUM(S6:S9)</f>
-        <v>0</v>
-      </c>
+      <c r="C10" s="4">
+        <v>118.056</v>
+      </c>
+      <c r="D10" s="4">
+        <v>210.084</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>143.685</v>
+      </c>
+      <c r="H10" s="4">
+        <v>242.756</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
+        <v>493.03100000000001</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>566.11800000000005</v>
+      </c>
+      <c r="R10" s="4">
+        <v>744.01300000000003</v>
+      </c>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -1301,32 +1357,70 @@
         <v>34</v>
       </c>
       <c r="C11" s="4">
-        <v>118.056</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <f t="shared" ref="C11:J11" si="1">+C9-C10</f>
+        <v>184.86799999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>271.16000000000003</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="4">
-        <v>143.685</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+        <f t="shared" si="1"/>
+        <v>218.03399999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>331.57400000000007</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="L11" s="4">
+        <f t="shared" ref="L11:Q11" si="2">+L9-L10</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="4">
-        <v>493.03100000000001</v>
+        <f t="shared" si="2"/>
+        <v>749.80199999999991</v>
       </c>
       <c r="Q11" s="4">
-        <v>566.11800000000005</v>
+        <f t="shared" si="2"/>
+        <v>925.79300000000001</v>
       </c>
       <c r="R11" s="4">
-        <v>744.01300000000003</v>
-      </c>
-      <c r="S11" s="4"/>
+        <f>+R9-R10</f>
+        <v>1060.6769999999997</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" ref="S11" si="3">+S9-S10</f>
+        <v>0</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -1361,70 +1455,36 @@
         <v>35</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:J12" si="1">+C10-C11</f>
-        <v>184.86799999999999</v>
+        <v>103.48399999999999</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>113.155</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>218.03399999999999</v>
+        <v>118.155</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>126.501</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4">
-        <f t="shared" ref="L12:Q12" si="2">+L10-L11</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="4">
-        <f t="shared" si="2"/>
-        <v>749.80199999999991</v>
+        <v>347.37099999999998</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="2"/>
-        <v>925.79300000000001</v>
+        <v>455.851</v>
       </c>
       <c r="R12" s="4">
-        <f>+R10-R11</f>
-        <v>1060.6769999999997</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" ref="S12" si="3">+S10-S11</f>
-        <v>0</v>
-      </c>
+        <v>507.12200000000001</v>
+      </c>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -1456,18 +1516,22 @@
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
-        <v>103.48399999999999</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>34.390999999999998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>19.986000000000001</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <v>118.155</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>24.103999999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>32.447000000000003</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1476,13 +1540,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4">
-        <v>347.37099999999998</v>
+        <v>86.588999999999999</v>
       </c>
       <c r="Q13" s="4">
-        <v>455.851</v>
+        <v>171.38800000000001</v>
       </c>
       <c r="R13" s="4">
-        <v>507.12200000000001</v>
+        <v>113.444</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1516,18 +1580,22 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4">
-        <v>34.390999999999998</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>11.654999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.4829999999999997</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <v>24.103999999999999</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>11.871</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-2.57</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1536,13 +1604,13 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4">
-        <v>86.588999999999999</v>
+        <v>-45.515999999999998</v>
       </c>
       <c r="Q14" s="4">
-        <v>171.38800000000001</v>
+        <v>36.055999999999997</v>
       </c>
       <c r="R14" s="4">
-        <v>113.444</v>
+        <v>19.640999999999998</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -1576,18 +1644,22 @@
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4">
-        <v>11.654999999999999</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-2.5000000000000001E-2</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <v>11.871</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>0.126</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.127</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1596,13 +1668,13 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4">
-        <v>-45.515999999999998</v>
+        <v>1.669</v>
       </c>
       <c r="Q15" s="4">
-        <v>36.055999999999997</v>
+        <v>-1.81</v>
       </c>
       <c r="R15" s="4">
-        <v>19.640999999999998</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -1639,32 +1711,70 @@
         <v>39</v>
       </c>
       <c r="C16" s="4">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+        <f t="shared" ref="C16:J16" si="4">+C11-SUM(C12:C14)+C15</f>
+        <v>35.569999999999993</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
+        <v>132.51100000000002</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G16" s="4">
-        <v>0.126</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+        <f t="shared" si="4"/>
+        <v>64.029999999999973</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="4"/>
+        <v>175.32300000000006</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="L16" s="4">
+        <f t="shared" ref="L16:Q16" si="5">+L11-SUM(L12:L14)+L15</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P16" s="4">
-        <v>1.669</v>
+        <f t="shared" si="5"/>
+        <v>363.02699999999993</v>
       </c>
       <c r="Q16" s="4">
-        <v>-1.81</v>
+        <f t="shared" si="5"/>
+        <v>260.68799999999993</v>
       </c>
       <c r="R16" s="4">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="S16" s="4"/>
+        <f>+R11-SUM(R12:R14)+R15</f>
+        <v>421.08199999999971</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" ref="S16" si="6">+S11-SUM(S12:S14)+S15</f>
+        <v>0</v>
+      </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -1699,70 +1809,36 @@
         <v>40</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:J17" si="4">+C12-SUM(C13:C15)+C16</f>
-        <v>35.569999999999993</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>27.388999999999999</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <f t="shared" si="4"/>
-        <v>64.029999999999973</v>
+        <v>24.777999999999999</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>25.611999999999998</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <f t="shared" ref="L17:Q17" si="5">+L12-SUM(L13:L15)+L16</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="4">
-        <f t="shared" si="5"/>
-        <v>363.02699999999993</v>
+        <v>112.503</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="5"/>
-        <v>260.68799999999993</v>
+        <v>107.036</v>
       </c>
       <c r="R17" s="4">
-        <f>+R12-SUM(R13:R15)+R16</f>
-        <v>421.08199999999971</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" ref="S17" si="6">+S12-SUM(S13:S15)+S16</f>
-        <v>0</v>
-      </c>
+        <v>127.3</v>
+      </c>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -1797,32 +1873,70 @@
         <v>41</v>
       </c>
       <c r="C18" s="4">
-        <v>36.049999999999997</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+        <f t="shared" ref="C18:J18" si="7">+C16-C17</f>
+        <v>-0.48000000000000398</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="7"/>
+        <v>105.12200000000003</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="4">
-        <v>24.777999999999999</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+        <f t="shared" si="7"/>
+        <v>39.251999999999974</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="7"/>
+        <v>149.71100000000007</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="L18" s="4">
+        <f t="shared" ref="L18:Q18" si="8">+L16-L17</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P18" s="4">
-        <v>112.503</v>
+        <f t="shared" si="8"/>
+        <v>250.52399999999994</v>
       </c>
       <c r="Q18" s="4">
-        <v>107.036</v>
+        <f t="shared" si="8"/>
+        <v>153.65199999999993</v>
       </c>
       <c r="R18" s="4">
-        <v>127.3</v>
-      </c>
-      <c r="S18" s="4"/>
+        <f>+R16-R17</f>
+        <v>293.7819999999997</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" ref="S18" si="9">+S16-S17</f>
+        <v>0</v>
+      </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -1857,70 +1971,36 @@
         <v>42</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:J19" si="7">+C17-C18</f>
-        <v>-0.48000000000000398</v>
+        <v>6.6740000000000004</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>33.47</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <f t="shared" si="7"/>
-        <v>39.251999999999974</v>
+        <v>19.132999999999999</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>44.597999999999999</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4">
-        <f t="shared" ref="L19:Q19" si="8">+L17-L18</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="4">
-        <f t="shared" si="8"/>
-        <v>250.52399999999994</v>
+        <v>63.412999999999997</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="8"/>
-        <v>153.65199999999993</v>
+        <v>78.63</v>
       </c>
       <c r="R19" s="4">
-        <f>+R17-R18</f>
-        <v>293.7819999999997</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" ref="S19" si="9">+S17-S18</f>
-        <v>0</v>
-      </c>
+        <v>102.18</v>
+      </c>
+      <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -1955,32 +2035,70 @@
         <v>43</v>
       </c>
       <c r="C20" s="4">
-        <v>6.6740000000000004</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+        <f t="shared" ref="C20:J20" si="10">+C18-C19</f>
+        <v>-7.1540000000000044</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="10"/>
+        <v>71.652000000000029</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="G20" s="4">
-        <v>19.132999999999999</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+        <f t="shared" si="10"/>
+        <v>20.118999999999975</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="10"/>
+        <v>105.11300000000007</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="L20" s="4">
+        <f t="shared" ref="L20:Q20" si="11">+L18-L19</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="P20" s="4">
-        <v>63.412999999999997</v>
+        <f t="shared" si="11"/>
+        <v>187.11099999999993</v>
       </c>
       <c r="Q20" s="4">
-        <v>78.63</v>
+        <f t="shared" si="11"/>
+        <v>75.021999999999935</v>
       </c>
       <c r="R20" s="4">
-        <v>102.18</v>
-      </c>
-      <c r="S20" s="4"/>
+        <f>+R18-R19</f>
+        <v>191.60199999999969</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" ref="S20" si="12">+S18-S19</f>
+        <v>0</v>
+      </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -2011,74 +2129,23 @@
       <c r="AU20" s="4"/>
     </row>
     <row r="21" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21:J21" si="10">+C19-C20</f>
-        <v>-7.1540000000000044</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="10"/>
-        <v>20.118999999999975</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4">
-        <f t="shared" ref="L21:Q21" si="11">+L19-L20</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="11"/>
-        <v>187.11099999999993</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="11"/>
-        <v>75.021999999999935</v>
-      </c>
-      <c r="R21" s="4">
-        <f>+R19-R20</f>
-        <v>191.60199999999969</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" ref="S21" si="12">+S19-S20</f>
-        <v>0</v>
-      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -2109,22 +2176,70 @@
       <c r="AU21" s="4"/>
     </row>
     <row r="22" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:J22" si="13">+C20/C23</f>
+        <v>-3.8273026460271399E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="13"/>
+        <v>0.38148156083011325</v>
+      </c>
+      <c r="E22" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="13"/>
+        <v>0.10711326985246934</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="13"/>
+        <v>0.55962011700395797</v>
+      </c>
+      <c r="I22" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="L22" s="6" t="e">
+        <f>+L20/L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="6" t="e">
+        <f t="shared" ref="M22:Q22" si="14">+M20/M23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="14"/>
+        <v>1.0240236323973686</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="14"/>
+        <v>0.41058142466084485</v>
+      </c>
+      <c r="R22" s="6">
+        <f>+R20/R23</f>
+        <v>1.0213361232362843</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -2157,68 +2272,37 @@
     </row>
     <row r="23" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="6">
-        <f t="shared" ref="C23:J23" si="13">+C21/C24</f>
-        <v>-3.8273026460271399E-2</v>
-      </c>
-      <c r="D23" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="13"/>
-        <v>0.10711326985246934</v>
-      </c>
-      <c r="H23" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="6" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>186.920154</v>
+      </c>
+      <c r="D23" s="4">
+        <v>187.825592</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>187.82920200000001</v>
+      </c>
+      <c r="H23" s="4">
+        <v>187.82920200000001</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="6" t="e">
-        <f>+L21/L24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="6" t="e">
-        <f t="shared" ref="L23:Q23" si="14">+M21/M24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="6" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="6" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="14"/>
-        <v>1.0240236323973686</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="14"/>
-        <v>0.41058142466084485</v>
-      </c>
-      <c r="R23" s="6">
-        <f>+R21/R24</f>
-        <v>1.0213361232362843</v>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4">
+        <v>182.72136900000001</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>182.72136900000001</v>
+      </c>
+      <c r="R23" s="4">
+        <v>187.599357</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -2251,18 +2335,11 @@
       <c r="AU23" s="4"/>
     </row>
     <row r="24" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4">
-        <v>186.920154</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>187.82920200000001</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2271,15 +2348,9 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4">
-        <v>182.72136900000001</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>182.72136900000001</v>
-      </c>
-      <c r="R24" s="4">
-        <v>187.599357</v>
-      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -2311,23 +2382,59 @@
       <c r="AU24" s="4"/>
     </row>
     <row r="25" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="G25" s="7">
+        <f>+G5/C5-1</f>
+        <v>0.16118223451802938</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25:J29" si="15">+H5/D5-1</f>
+        <v>0.23018665910898028</v>
+      </c>
+      <c r="I25" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="M25" s="7" t="e">
+        <f t="shared" ref="M25:Q29" si="16">+M5/L5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="16"/>
+        <v>0.20573220635103784</v>
+      </c>
+      <c r="R25" s="7">
+        <f>+R5/Q5-1</f>
+        <v>0.17276218170972668</v>
+      </c>
+      <c r="S25" s="7">
+        <f>+S5/R5-1</f>
+        <v>-1</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -2366,12 +2473,12 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="7">
-        <f>+G6/C6-1</f>
-        <v>0.16118223451802938</v>
-      </c>
-      <c r="H26" s="7" t="e">
-        <f t="shared" ref="H26:J30" si="15">+H6/D6-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="G26:G29" si="17">+G6/C6-1</f>
+        <v>0.17401288730463382</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="15"/>
+        <v>0.12308000780924333</v>
       </c>
       <c r="I26" s="7" t="e">
         <f t="shared" si="15"/>
@@ -2384,7 +2491,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="7" t="e">
-        <f t="shared" ref="M26:R30" si="16">+M6/L6-1</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="7" t="e">
@@ -2401,14 +2508,14 @@
       </c>
       <c r="Q26" s="7">
         <f t="shared" si="16"/>
-        <v>0.20573220635103784</v>
+        <v>0.17895892289777371</v>
       </c>
       <c r="R26" s="7">
-        <f>+R6/Q6-1</f>
-        <v>0.17276218170972668</v>
+        <f t="shared" ref="R26:S29" si="18">+R6/Q6-1</f>
+        <v>0.21790269061598821</v>
       </c>
       <c r="S26" s="7">
-        <f>+S6/R6-1</f>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="T26" s="4"/>
@@ -2449,12 +2556,12 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="7">
-        <f t="shared" ref="G27:G30" si="17">+G7/C7-1</f>
-        <v>0.17401288730463382</v>
-      </c>
-      <c r="H27" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>0.46811494826081534</v>
+      </c>
+      <c r="H27" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.30186213655668093</v>
       </c>
       <c r="I27" s="7" t="e">
         <f t="shared" si="15"/>
@@ -2484,11 +2591,11 @@
       </c>
       <c r="Q27" s="7">
         <f t="shared" si="16"/>
-        <v>0.17895892289777371</v>
+        <v>0.23888712784374921</v>
       </c>
       <c r="R27" s="7">
-        <f t="shared" ref="R27:S30" si="18">+R7/Q7-1</f>
-        <v>0.21790269061598821</v>
+        <f t="shared" si="18"/>
+        <v>0.38961056001679517</v>
       </c>
       <c r="S27" s="7">
         <f t="shared" si="18"/>
@@ -2525,7 +2632,7 @@
     </row>
     <row r="28" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2533,11 +2640,11 @@
       <c r="F28" s="4"/>
       <c r="G28" s="7">
         <f t="shared" si="17"/>
-        <v>0.46811494826081534</v>
-      </c>
-      <c r="H28" s="7" t="e">
+        <v>-0.3776223776223776</v>
+      </c>
+      <c r="H28" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.20485744456177413</v>
       </c>
       <c r="I28" s="7" t="e">
         <f t="shared" si="15"/>
@@ -2567,11 +2674,11 @@
       </c>
       <c r="Q28" s="7">
         <f t="shared" si="16"/>
-        <v>0.23888712784374921</v>
+        <v>0.61182205971968306</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="18"/>
-        <v>0.38961056001679517</v>
+        <v>-0.19054820415879015</v>
       </c>
       <c r="S28" s="7">
         <f t="shared" si="18"/>
@@ -2607,56 +2714,56 @@
       <c r="AU28" s="4"/>
     </row>
     <row r="29" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="7">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8">
         <f t="shared" si="17"/>
-        <v>-0.3776223776223776</v>
-      </c>
-      <c r="H29" s="7" t="e">
+        <v>0.19409158732883491</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="15"/>
+        <v>0.19342786611365548</v>
+      </c>
+      <c r="I29" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="7" t="e">
+      <c r="J29" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="7" t="e">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="7" t="e">
+      <c r="N29" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="7" t="e">
+      <c r="O29" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="7" t="e">
+      <c r="P29" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="8">
         <f t="shared" si="16"/>
-        <v>0.61182205971968306</v>
-      </c>
-      <c r="R29" s="7">
+        <v>0.20041147925747071</v>
+      </c>
+      <c r="R29" s="8">
         <f t="shared" si="18"/>
-        <v>-0.19054820415879015</v>
-      </c>
-      <c r="S29" s="7">
+        <v>0.20964990538979866</v>
+      </c>
+      <c r="S29" s="8">
         <f t="shared" si="18"/>
         <v>-1</v>
       </c>
@@ -2693,55 +2800,70 @@
       <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="7">
+        <f t="shared" ref="C30:F30" si="19">+C11/C9</f>
+        <v>0.61027848569278109</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="19"/>
+        <v>0.56345637556000705</v>
+      </c>
+      <c r="E30" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G30" s="7">
-        <f t="shared" si="17"/>
-        <v>0.19409158732883491</v>
-      </c>
-      <c r="H30" s="7" t="e">
-        <f t="shared" si="15"/>
+        <f>+G11/G9</f>
+        <v>0.60277176482297035</v>
+      </c>
+      <c r="H30" s="7">
+        <f>+H11/H9</f>
+        <v>0.57732314174777577</v>
+      </c>
+      <c r="I30" s="7" t="e">
+        <f>+I11/I9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="J30" s="7" t="e">
+        <f>+J11/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="7" t="e">
+        <f t="shared" ref="L30:S30" si="20">+L11/L9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
       <c r="M30" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="7" t="e">
-        <f t="shared" si="16"/>
+      <c r="P30" s="7">
+        <f t="shared" si="20"/>
+        <v>0.60330068480640597</v>
+      </c>
+      <c r="Q30" s="7">
+        <f t="shared" si="20"/>
+        <v>0.62054170791689311</v>
+      </c>
+      <c r="R30" s="7">
+        <f t="shared" si="20"/>
+        <v>0.58773362738198787</v>
+      </c>
+      <c r="S30" s="7" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="7">
-        <f t="shared" si="16"/>
-        <v>0.20041147925747071</v>
-      </c>
-      <c r="R30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.20964990538979866</v>
-      </c>
-      <c r="S30" s="7">
-        <f t="shared" si="18"/>
-        <v>-1</v>
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -2777,68 +2899,68 @@
         <v>51</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" ref="C31:G31" si="19">+C12/C10</f>
-        <v>0.61027848569278109</v>
-      </c>
-      <c r="D31" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="C31:F31" si="21">+C16/C9</f>
+        <v>0.11742219170485005</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="21"/>
+        <v>0.27535096541463377</v>
+      </c>
+      <c r="E31" s="7" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7" t="e">
-        <f t="shared" si="19"/>
+      <c r="F31" s="7" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="7" t="e">
-        <f t="shared" si="19"/>
+      <c r="G31" s="7">
+        <f>+G16/G9</f>
+        <v>0.177015860377807</v>
+      </c>
+      <c r="H31" s="7">
+        <f>+H16/H9</f>
+        <v>0.30526526561384582</v>
+      </c>
+      <c r="I31" s="7" t="e">
+        <f>+I16/I9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7">
-        <f>+G12/G10</f>
-        <v>0.60277176482297035</v>
-      </c>
-      <c r="H31" s="7" t="e">
-        <f>+H12/H10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="7" t="e">
-        <f>+I12/I10</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J31" s="7" t="e">
-        <f>+J12/J10</f>
+        <f>+J16/J9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="7" t="e">
-        <f t="shared" ref="L31:S31" si="20">+L12/L10</f>
+        <f t="shared" ref="L31:S31" si="22">+L16/L9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="20"/>
-        <v>0.60330068480640597</v>
+        <f t="shared" si="22"/>
+        <v>0.29209636371097319</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="20"/>
-        <v>0.62054170791689311</v>
+        <f t="shared" si="22"/>
+        <v>0.17473428374748889</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="20"/>
-        <v>0.58773362738198787</v>
+        <f t="shared" si="22"/>
+        <v>0.23332649928796623</v>
       </c>
       <c r="S31" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4"/>
@@ -2875,68 +2997,68 @@
         <v>52</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" ref="C32:G32" si="21">+C17/C10</f>
-        <v>0.11742219170485005</v>
-      </c>
-      <c r="D32" s="7" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="C32:F32" si="23">+C19/C18</f>
+        <v>-13.904166666666551</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="23"/>
+        <v>0.31839196362321864</v>
+      </c>
+      <c r="E32" s="7" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="7" t="e">
-        <f t="shared" si="21"/>
+      <c r="F32" s="7" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="7" t="e">
-        <f t="shared" si="21"/>
+      <c r="G32" s="7">
+        <f>+G19/G18</f>
+        <v>0.48744013043921358</v>
+      </c>
+      <c r="H32" s="7">
+        <f>+H19/H18</f>
+        <v>0.29789394232888683</v>
+      </c>
+      <c r="I32" s="7" t="e">
+        <f>+I19/I18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7">
-        <f>+G17/G10</f>
-        <v>0.177015860377807</v>
-      </c>
-      <c r="H32" s="7" t="e">
-        <f>+H17/H10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="7" t="e">
-        <f>+I17/I10</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J32" s="7" t="e">
-        <f>+J17/J10</f>
+        <f>+J19/J18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="7" t="e">
-        <f t="shared" ref="L32:S32" si="22">+L17/L10</f>
+        <f t="shared" ref="L32:S32" si="24">+L19/L18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="22"/>
-        <v>0.29209636371097319</v>
+        <f t="shared" si="24"/>
+        <v>0.25312145742523673</v>
       </c>
       <c r="Q32" s="7">
-        <f t="shared" si="22"/>
-        <v>0.17473428374748889</v>
+        <f t="shared" si="24"/>
+        <v>0.51174081691094186</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" si="22"/>
-        <v>0.23332649928796623</v>
+        <f t="shared" si="24"/>
+        <v>0.34780891953897825</v>
       </c>
       <c r="S32" s="7" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="4"/>
@@ -2968,75 +3090,24 @@
       <c r="AT32" s="4"/>
       <c r="AU32" s="4"/>
     </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="7">
-        <f t="shared" ref="C33:G33" si="23">+C20/C19</f>
-        <v>-13.904166666666551</v>
-      </c>
-      <c r="D33" s="7" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="7" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="7" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="7">
-        <f>+G20/G19</f>
-        <v>0.48744013043921358</v>
-      </c>
-      <c r="H33" s="7" t="e">
-        <f>+H20/H19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="7" t="e">
-        <f>+I20/I19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="7" t="e">
-        <f>+J20/J19</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="33" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="7" t="e">
-        <f t="shared" ref="L33:S33" si="24">+L20/L19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" s="7">
-        <f t="shared" si="24"/>
-        <v>0.25312145742523673</v>
-      </c>
-      <c r="Q33" s="7">
-        <f t="shared" si="24"/>
-        <v>0.51174081691094186</v>
-      </c>
-      <c r="R33" s="7">
-        <f t="shared" si="24"/>
-        <v>0.34780891953897825</v>
-      </c>
-      <c r="S33" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -3066,7 +3137,7 @@
       <c r="AT33" s="4"/>
       <c r="AU33" s="4"/>
     </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3113,7 +3184,7 @@
       <c r="AT34" s="4"/>
       <c r="AU34" s="4"/>
     </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3160,7 +3231,7 @@
       <c r="AT35" s="4"/>
       <c r="AU35" s="4"/>
     </row>
-    <row r="36" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3207,7 +3278,7 @@
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
     </row>
-    <row r="37" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3254,7 +3325,7 @@
       <c r="AT37" s="4"/>
       <c r="AU37" s="4"/>
     </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3301,7 +3372,7 @@
       <c r="AT38" s="4"/>
       <c r="AU38" s="4"/>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3348,7 +3419,7 @@
       <c r="AT39" s="4"/>
       <c r="AU39" s="4"/>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3395,7 +3466,7 @@
       <c r="AT40" s="4"/>
       <c r="AU40" s="4"/>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3442,7 +3513,7 @@
       <c r="AT41" s="4"/>
       <c r="AU41" s="4"/>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3489,7 +3560,7 @@
       <c r="AT42" s="4"/>
       <c r="AU42" s="4"/>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3536,7 +3607,7 @@
       <c r="AT43" s="4"/>
       <c r="AU43" s="4"/>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3583,7 +3654,7 @@
       <c r="AT44" s="4"/>
       <c r="AU44" s="4"/>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3630,7 +3701,7 @@
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3677,7 +3748,7 @@
       <c r="AT46" s="4"/>
       <c r="AU46" s="4"/>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3724,7 +3795,7 @@
       <c r="AT47" s="4"/>
       <c r="AU47" s="4"/>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -16367,53 +16438,6 @@
       <c r="AT316" s="4"/>
       <c r="AU316" s="4"/>
     </row>
-    <row r="317" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="4"/>
-      <c r="H317" s="4"/>
-      <c r="I317" s="4"/>
-      <c r="J317" s="4"/>
-      <c r="K317" s="4"/>
-      <c r="L317" s="4"/>
-      <c r="M317" s="4"/>
-      <c r="N317" s="4"/>
-      <c r="O317" s="4"/>
-      <c r="P317" s="4"/>
-      <c r="Q317" s="4"/>
-      <c r="R317" s="4"/>
-      <c r="S317" s="4"/>
-      <c r="T317" s="4"/>
-      <c r="U317" s="4"/>
-      <c r="V317" s="4"/>
-      <c r="W317" s="4"/>
-      <c r="X317" s="4"/>
-      <c r="Y317" s="4"/>
-      <c r="Z317" s="4"/>
-      <c r="AA317" s="4"/>
-      <c r="AB317" s="4"/>
-      <c r="AC317" s="4"/>
-      <c r="AD317" s="4"/>
-      <c r="AE317" s="4"/>
-      <c r="AF317" s="4"/>
-      <c r="AG317" s="4"/>
-      <c r="AH317" s="4"/>
-      <c r="AI317" s="4"/>
-      <c r="AJ317" s="4"/>
-      <c r="AK317" s="4"/>
-      <c r="AL317" s="4"/>
-      <c r="AM317" s="4"/>
-      <c r="AN317" s="4"/>
-      <c r="AO317" s="4"/>
-      <c r="AP317" s="4"/>
-      <c r="AQ317" s="4"/>
-      <c r="AR317" s="4"/>
-      <c r="AS317" s="4"/>
-      <c r="AT317" s="4"/>
-      <c r="AU317" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{245417BE-B86B-4955-B496-68D380313DAF}"/>

--- a/BIRK.xlsx
+++ b/BIRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFA6088-7154-45D8-A0C9-72D9875F460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C039458A-B63B-46AD-A31E-9B8BA29288FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{18F8973A-4B1D-45B3-BBD1-81233DF5C159}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{18F8973A-4B1D-45B3-BBD1-81233DF5C159}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Birkenstock Holding</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>In 2021 bought majority stake in BIRK together with Groupe Arnault</t>
+  </si>
+  <si>
+    <t>Price USD</t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B407F59-63B9-4237-A3CE-A07280429F0F}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,88 +656,105 @@
         <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I2">
-        <v>57</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <f>+I2*I10</f>
+        <v>42.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4">
-        <v>187.82920200000001</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="I4" s="4">
+        <v>186.479342</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4">
-        <f>+I2*I3</f>
-        <v>10706.264514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="I5" s="4">
+        <f>+I3*I4</f>
+        <v>7893.6705468599994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="4">
-        <v>235.399</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" s="4">
-        <f>1170.874+29.721</f>
-        <v>1200.595</v>
+        <v>261.834</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4">
+        <f>1166.088+15.572</f>
+        <v>1181.6599999999999</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="4">
-        <f>+I4-I5+I6</f>
-        <v>11671.460514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="I8" s="4">
+        <f>+I5-I6+I7</f>
+        <v>8813.4965468599985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{44DFD5E7-28F8-4655-9E69-8E3B7536B8C7}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{44DFD5E7-28F8-4655-9E69-8E3B7536B8C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -741,11 +764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05227C9-86FF-4681-812C-4D0390C0B72A}">
   <dimension ref="A1:AU316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +843,9 @@
       <c r="D3" s="4">
         <v>362.524</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>340.59300000000002</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
         <v>182.04499999999999</v>
@@ -828,7 +853,9 @@
       <c r="H3" s="4">
         <v>432.48399999999998</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>390.15600000000001</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -884,7 +911,9 @@
       <c r="D4" s="4">
         <v>117.773</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>223.364</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
         <v>178.517</v>
@@ -892,7 +921,9 @@
       <c r="H4" s="4">
         <v>140.70500000000001</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>243.89099999999999</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -948,7 +979,9 @@
       <c r="D5" s="4">
         <v>254.04599999999999</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>282.86500000000001</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
         <v>210.7</v>
@@ -956,7 +989,9 @@
       <c r="H5" s="4">
         <v>312.524</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>312.26600000000002</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1012,7 +1047,9 @@
       <c r="D6" s="4">
         <v>189.51900000000001</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>229.048</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
         <v>102.759</v>
@@ -1020,7 +1057,9 @@
       <c r="H6" s="4">
         <v>212.845</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>258.60300000000001</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1076,7 +1115,9 @@
       <c r="D7" s="4">
         <v>36.731999999999999</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>52.043999999999997</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
         <v>47.103000000000002</v>
@@ -1084,7 +1125,9 @@
       <c r="H7" s="4">
         <v>47.82</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>63.177999999999997</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1140,7 +1183,9 @@
       <c r="D8" s="4">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>0.80100000000000005</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
         <v>1.157</v>
@@ -1148,7 +1193,9 @@
       <c r="H8" s="4">
         <v>1.141</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <v>0.995</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1205,11 +1252,10 @@
         <v>481.24400000000003</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:Q9" si="0">+SUM(E5:E8)</f>
-        <v>0</v>
+        <v>564.75800000000004</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E9:Q9" si="0">+SUM(F5:F8)</f>
         <v>0</v>
       </c>
       <c r="G9" s="5">
@@ -1219,8 +1265,7 @@
         <v>574.33000000000004</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>635.04200000000003</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="0"/>
@@ -1298,7 +1343,9 @@
       <c r="D10" s="4">
         <v>210.084</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>228.833</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
         <v>143.685</v>
@@ -1306,7 +1353,9 @@
       <c r="H10" s="4">
         <v>242.756</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>250.964</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1366,7 +1415,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>335.92500000000007</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
@@ -1382,7 +1431,7 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>384.07800000000003</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
@@ -1460,7 +1509,9 @@
       <c r="D12" s="4">
         <v>113.155</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>149.185</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
         <v>118.155</v>
@@ -1468,7 +1519,9 @@
       <c r="H12" s="4">
         <v>126.501</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <v>162.77099999999999</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1524,7 +1577,9 @@
       <c r="D13" s="4">
         <v>19.986000000000001</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>27.376999999999999</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <v>24.103999999999999</v>
@@ -1532,7 +1587,9 @@
       <c r="H13" s="4">
         <v>32.447000000000003</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4">
+        <v>32.96</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -1588,7 +1645,9 @@
       <c r="D14" s="4">
         <v>5.4829999999999997</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4">
+        <v>4.157</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <v>11.871</v>
@@ -1596,7 +1655,9 @@
       <c r="H14" s="4">
         <v>-2.57</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <v>-9.5069999999999997</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1652,7 +1713,9 @@
       <c r="D15" s="4">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>0.26700000000000002</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
         <v>0.126</v>
@@ -1660,7 +1723,9 @@
       <c r="H15" s="4">
         <v>0.127</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4">
+        <v>0.127</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1720,7 +1785,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>155.47300000000004</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="4"/>
@@ -1736,7 +1801,7 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>197.98100000000005</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="4"/>
@@ -1814,7 +1879,9 @@
       <c r="D17" s="4">
         <v>27.388999999999999</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>44.578000000000003</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>24.777999999999999</v>
@@ -1822,7 +1889,9 @@
       <c r="H17" s="4">
         <v>25.611999999999998</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4">
+        <v>18.302</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1882,7 +1951,7 @@
       </c>
       <c r="E18" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>110.89500000000004</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="7"/>
@@ -1898,7 +1967,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>179.67900000000006</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="7"/>
@@ -1976,7 +2045,9 @@
       <c r="D19" s="4">
         <v>33.47</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>36.225499999999997</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
         <v>19.132999999999999</v>
@@ -1984,7 +2055,9 @@
       <c r="H19" s="4">
         <v>44.597999999999999</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4">
+        <v>50.451000000000001</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2044,7 +2117,7 @@
       </c>
       <c r="E20" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>74.669500000000042</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="10"/>
@@ -2060,7 +2133,7 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>129.22800000000007</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="10"/>
@@ -2187,9 +2260,9 @@
         <f t="shared" si="13"/>
         <v>0.38148156083011325</v>
       </c>
-      <c r="E22" s="6" t="e">
+      <c r="E22" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.39754309164107926</v>
       </c>
       <c r="F22" s="6" t="e">
         <f t="shared" si="13"/>
@@ -2203,9 +2276,9 @@
         <f t="shared" si="13"/>
         <v>0.55962011700395797</v>
       </c>
-      <c r="I22" s="6" t="e">
+      <c r="I22" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.6929882882147882</v>
       </c>
       <c r="J22" s="6" t="e">
         <f t="shared" si="13"/>
@@ -2280,7 +2353,9 @@
       <c r="D23" s="4">
         <v>187.825592</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4">
+        <v>187.827437</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
         <v>187.82920200000001</v>
@@ -2288,7 +2363,9 @@
       <c r="H23" s="4">
         <v>187.82920200000001</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="4">
+        <v>186.479342</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2397,9 +2474,9 @@
         <f t="shared" ref="H25:J29" si="15">+H5/D5-1</f>
         <v>0.23018665910898028</v>
       </c>
-      <c r="I25" s="7" t="e">
+      <c r="I25" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.10394004206953844</v>
       </c>
       <c r="J25" s="7" t="e">
         <f t="shared" si="15"/>
@@ -2480,9 +2557,9 @@
         <f t="shared" si="15"/>
         <v>0.12308000780924333</v>
       </c>
-      <c r="I26" s="7" t="e">
+      <c r="I26" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.12903408892459223</v>
       </c>
       <c r="J26" s="7" t="e">
         <f t="shared" si="15"/>
@@ -2563,9 +2640,9 @@
         <f t="shared" si="15"/>
         <v>0.30186213655668093</v>
       </c>
-      <c r="I27" s="7" t="e">
+      <c r="I27" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.21393436323111215</v>
       </c>
       <c r="J27" s="7" t="e">
         <f t="shared" si="15"/>
@@ -2646,9 +2723,9 @@
         <f t="shared" si="15"/>
         <v>0.20485744456177413</v>
       </c>
-      <c r="I28" s="7" t="e">
+      <c r="I28" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.24219725343320841</v>
       </c>
       <c r="J28" s="7" t="e">
         <f t="shared" si="15"/>
@@ -2729,9 +2806,9 @@
         <f t="shared" si="15"/>
         <v>0.19342786611365548</v>
       </c>
-      <c r="I29" s="8" t="e">
+      <c r="I29" s="8">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.12444976432383426</v>
       </c>
       <c r="J29" s="8" t="e">
         <f t="shared" si="15"/>
@@ -2808,9 +2885,9 @@
         <f t="shared" si="19"/>
         <v>0.56345637556000705</v>
       </c>
-      <c r="E30" s="7" t="e">
+      <c r="E30" s="7">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>0.59481229128228386</v>
       </c>
       <c r="F30" s="7" t="e">
         <f t="shared" si="19"/>
@@ -2824,9 +2901,9 @@
         <f>+H11/H9</f>
         <v>0.57732314174777577</v>
       </c>
-      <c r="I30" s="7" t="e">
+      <c r="I30" s="7">
         <f>+I11/I9</f>
-        <v>#DIV/0!</v>
+        <v>0.60480724109586459</v>
       </c>
       <c r="J30" s="7" t="e">
         <f>+J11/J9</f>
@@ -2906,9 +2983,9 @@
         <f t="shared" si="21"/>
         <v>0.27535096541463377</v>
       </c>
-      <c r="E31" s="7" t="e">
+      <c r="E31" s="7">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>0.27529136373455537</v>
       </c>
       <c r="F31" s="7" t="e">
         <f t="shared" si="21"/>
@@ -2922,9 +2999,9 @@
         <f>+H16/H9</f>
         <v>0.30526526561384582</v>
       </c>
-      <c r="I31" s="7" t="e">
+      <c r="I31" s="7">
         <f>+I16/I9</f>
-        <v>#DIV/0!</v>
+        <v>0.31176048198386885</v>
       </c>
       <c r="J31" s="7" t="e">
         <f>+J16/J9</f>
@@ -3004,9 +3081,9 @@
         <f t="shared" si="23"/>
         <v>0.31839196362321864</v>
       </c>
-      <c r="E32" s="7" t="e">
+      <c r="E32" s="7">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>0.3266648631588438</v>
       </c>
       <c r="F32" s="7" t="e">
         <f t="shared" si="23"/>
@@ -3020,9 +3097,9 @@
         <f>+H19/H18</f>
         <v>0.29789394232888683</v>
       </c>
-      <c r="I32" s="7" t="e">
+      <c r="I32" s="7">
         <f>+I19/I18</f>
-        <v>#DIV/0!</v>
+        <v>0.28078406491576635</v>
       </c>
       <c r="J32" s="7" t="e">
         <f>+J19/J18</f>

--- a/BIRK.xlsx
+++ b/BIRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8136572E-E566-49DE-BA32-E5B886EAD808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD70B21-FEBD-4820-ABAA-2D04A16E24EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{18F8973A-4B1D-45B3-BBD1-81233DF5C159}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{18F8973A-4B1D-45B3-BBD1-81233DF5C159}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Birkenstock Holding</t>
   </si>
@@ -215,6 +215,24 @@
   <si>
     <t>USD/EUR</t>
   </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Oliver Reichert</t>
+  </si>
+  <si>
+    <t>Dr. Erik Massman &amp; Ivica Krolo</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Alexandre Arnault &amp; other</t>
+  </si>
 </sst>
 </file>
 
@@ -223,13 +241,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -294,23 +318,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -647,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B407F59-63B9-4237-A3CE-A07280429F0F}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -672,16 +701,16 @@
         <v>57</v>
       </c>
       <c r="I2" s="2">
-        <v>49.8</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="11">
         <f>+I2*I10</f>
-        <v>42.33</v>
+        <v>36.1845</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -689,10 +718,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="3">
-        <v>186.479342</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
+        <v>183.90605600000001</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -704,7 +733,7 @@
       </c>
       <c r="I5" s="3">
         <f>+I3*I4</f>
-        <v>7893.6705468599994</v>
+        <v>6654.5486833320001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -715,10 +744,10 @@
         <v>23</v>
       </c>
       <c r="I6" s="3">
-        <v>261.834</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
+        <v>329.06700000000001</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -726,11 +755,11 @@
         <v>24</v>
       </c>
       <c r="I7" s="3">
-        <f>1166.088+15.572</f>
-        <v>1181.6599999999999</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>10</v>
+        <f>1128.01+4.202+17.133</f>
+        <v>1149.345</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -739,7 +768,7 @@
       </c>
       <c r="I8" s="3">
         <f>+I5-I6+I7</f>
-        <v>8813.4965468599985</v>
+        <v>7474.8266833320004</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -750,18 +779,43 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="H13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -777,11 +831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05227C9-86FF-4681-812C-4D0390C0B72A}">
   <dimension ref="A1:AU316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -860,7 +914,10 @@
       <c r="E3" s="3">
         <v>340.59300000000002</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <f>+R3-SUM(C3:E3)</f>
+        <v>240.19399999999996</v>
+      </c>
       <c r="G3" s="3">
         <v>182.04499999999999</v>
       </c>
@@ -870,7 +927,10 @@
       <c r="I3" s="3">
         <v>390.15600000000001</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <f>+S3-SUM(G3:I3)</f>
+        <v>293.24800000000005</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -885,7 +945,9 @@
       <c r="R3" s="3">
         <v>1083.721</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3">
+        <v>1297.933</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -928,7 +990,10 @@
       <c r="E4" s="3">
         <v>223.364</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F19" si="0">+R4-SUM(C4:E4)</f>
+        <v>214.89499999999998</v>
+      </c>
       <c r="G4" s="3">
         <v>178.517</v>
       </c>
@@ -938,7 +1003,10 @@
       <c r="I4" s="3">
         <v>243.89099999999999</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J8" si="1">+S4-SUM(G4:I4)</f>
+        <v>231.68400000000008</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -953,7 +1021,9 @@
       <c r="R4" s="3">
         <v>716.68700000000001</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3">
+        <v>794.79700000000003</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -996,7 +1066,10 @@
       <c r="E5" s="3">
         <v>282.86500000000001</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>225.346</v>
+      </c>
       <c r="G5" s="3">
         <v>210.7</v>
       </c>
@@ -1006,7 +1079,10 @@
       <c r="I5" s="3">
         <v>312.26600000000002</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>250.18200000000002</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1021,7 +1097,9 @@
       <c r="R5" s="3">
         <v>943.71</v>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3">
+        <v>1085.672</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -1064,7 +1142,10 @@
       <c r="E6" s="3">
         <v>229.048</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>138.79300000000001</v>
+      </c>
       <c r="G6" s="3">
         <v>102.759</v>
       </c>
@@ -1074,7 +1155,10 @@
       <c r="I6" s="3">
         <v>258.60300000000001</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>211.02300000000002</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1089,7 +1173,9 @@
       <c r="R6" s="3">
         <v>644.88800000000003</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="3">
+        <v>785.23</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1132,7 +1218,10 @@
       <c r="E7" s="3">
         <v>52.043999999999997</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>90.95</v>
+      </c>
       <c r="G7" s="3">
         <v>47.103000000000002</v>
       </c>
@@ -1142,7 +1231,10 @@
       <c r="I7" s="3">
         <v>63.177999999999997</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>63.727000000000004</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1157,7 +1249,9 @@
       <c r="R7" s="3">
         <v>211.81</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3">
+        <v>221.828</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -1200,7 +1294,10 @@
       <c r="E8" s="3">
         <v>0.80100000000000005</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67499999999999982</v>
+      </c>
       <c r="G8" s="3">
         <v>1.157</v>
       </c>
@@ -1210,7 +1307,10 @@
       <c r="I8" s="3">
         <v>0.995</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4059999999999997</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1225,7 +1325,9 @@
       <c r="R8" s="3">
         <v>4.282</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3">
+        <v>4.6989999999999998</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1269,8 +1371,8 @@
         <v>564.75800000000004</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:Q9" si="0">+SUM(F5:F8)</f>
-        <v>0</v>
+        <f t="shared" ref="F9:Q9" si="2">+SUM(F5:F8)</f>
+        <v>455.76400000000001</v>
       </c>
       <c r="G9" s="7">
         <v>361.71899999999999</v>
@@ -1282,32 +1384,32 @@
         <v>635.04200000000003</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>526.33799999999997</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1242.8329999999999</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1491.9110000000001</v>
       </c>
       <c r="R9" s="7">
@@ -1316,7 +1418,7 @@
       </c>
       <c r="S9" s="7">
         <f>+SUM(S5:S8)</f>
-        <v>0</v>
+        <v>2097.4290000000001</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1360,7 +1462,10 @@
       <c r="E10" s="3">
         <v>228.833</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>187.04000000000008</v>
+      </c>
       <c r="G10" s="3">
         <v>143.685</v>
       </c>
@@ -1370,7 +1475,10 @@
       <c r="I10" s="3">
         <v>250.964</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <f>+S10-SUM(G10:I10)</f>
+        <v>220.31799999999998</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1385,7 +1493,9 @@
       <c r="R10" s="3">
         <v>744.01300000000003</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3">
+        <v>857.72299999999996</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1420,60 +1530,60 @@
         <v>34</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:J11" si="1">+C9-C10</f>
+        <f t="shared" ref="C11:J11" si="3">+C9-C10</f>
         <v>184.86799999999999</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>271.16000000000003</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>335.92500000000007</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>268.72399999999993</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>218.03399999999999</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>331.57400000000007</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>384.07800000000003</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>306.02</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <f t="shared" ref="L11:Q11" si="2">+L9-L10</f>
+        <f t="shared" ref="L11:Q11" si="4">+L9-L10</f>
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>749.80199999999991</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>925.79300000000001</v>
       </c>
       <c r="R11" s="3">
@@ -1481,8 +1591,8 @@
         <v>1060.6769999999997</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" ref="S11" si="3">+S9-S10</f>
-        <v>0</v>
+        <f t="shared" ref="S11" si="5">+S9-S10</f>
+        <v>1239.7060000000001</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -1526,7 +1636,10 @@
       <c r="E12" s="3">
         <v>149.185</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>141.298</v>
+      </c>
       <c r="G12" s="3">
         <v>118.155</v>
       </c>
@@ -1536,7 +1649,10 @@
       <c r="I12" s="3">
         <v>162.77099999999999</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <f>+S12-SUM(G12:I12)</f>
+        <v>156.23900000000003</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1551,7 +1667,9 @@
       <c r="R12" s="3">
         <v>507.12200000000001</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="3">
+        <v>563.66600000000005</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1594,7 +1712,10 @@
       <c r="E13" s="3">
         <v>27.376999999999999</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>31.690000000000012</v>
+      </c>
       <c r="G13" s="3">
         <v>24.103999999999999</v>
       </c>
@@ -1604,7 +1725,10 @@
       <c r="I13" s="3">
         <v>32.96</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <f>+S13-SUM(G13:I13)</f>
+        <v>35.64800000000001</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1619,7 +1743,9 @@
       <c r="R13" s="3">
         <v>113.444</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3">
+        <v>125.15900000000001</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -1662,7 +1788,10 @@
       <c r="E14" s="3">
         <v>4.157</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.6539999999999999</v>
+      </c>
       <c r="G14" s="3">
         <v>11.871</v>
       </c>
@@ -1672,7 +1801,10 @@
       <c r="I14" s="3">
         <v>-9.5069999999999997</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <f>+S14-SUM(G14:I14)</f>
+        <v>2.1589999999999998</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1687,7 +1819,9 @@
       <c r="R14" s="3">
         <v>19.640999999999998</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3">
+        <v>1.9530000000000001</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1730,7 +1864,10 @@
       <c r="E15" s="3">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13799999999999996</v>
+      </c>
       <c r="G15" s="3">
         <v>0.126</v>
       </c>
@@ -1740,7 +1877,10 @@
       <c r="I15" s="3">
         <v>0.127</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <f>+S15-SUM(G15:I15)</f>
+        <v>0.23599999999999999</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1755,7 +1895,9 @@
       <c r="R15" s="3">
         <v>0.61199999999999999</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3">
+        <v>0.61599999999999999</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -1790,60 +1932,60 @@
         <v>39</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16:J16" si="4">+C11-SUM(C12:C14)+C15</f>
+        <f t="shared" ref="C16:J16" si="6">+C11-SUM(C12:C14)+C15</f>
         <v>35.569999999999993</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>132.51100000000002</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>155.47300000000004</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>97.527999999999935</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>64.029999999999973</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>175.32300000000006</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>197.98100000000005</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>112.20999999999994</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3">
-        <f t="shared" ref="L16:Q16" si="5">+L11-SUM(L12:L14)+L15</f>
+        <f t="shared" ref="L16:Q16" si="7">+L11-SUM(L12:L14)+L15</f>
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>363.02699999999993</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>260.68799999999993</v>
       </c>
       <c r="R16" s="3">
@@ -1851,8 +1993,8 @@
         <v>421.08199999999971</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" ref="S16" si="6">+S11-SUM(S12:S14)+S15</f>
-        <v>0</v>
+        <f t="shared" ref="S16" si="8">+S11-SUM(S12:S14)+S15</f>
+        <v>549.5440000000001</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -1896,7 +2038,10 @@
       <c r="E17" s="3">
         <v>44.578000000000003</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>19.283000000000001</v>
+      </c>
       <c r="G17" s="3">
         <v>24.777999999999999</v>
       </c>
@@ -1906,7 +2051,10 @@
       <c r="I17" s="3">
         <v>18.302</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <f>+S17-SUM(G17:I17)</f>
+        <v>10.871999999999986</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1921,7 +2069,9 @@
       <c r="R17" s="3">
         <v>127.3</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17" s="3">
+        <v>79.563999999999993</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -1956,60 +2106,60 @@
         <v>41</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:J18" si="7">+C16-C17</f>
+        <f t="shared" ref="C18:J18" si="9">+C16-C17</f>
         <v>-0.48000000000000398</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>105.12200000000003</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110.89500000000004</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>78.244999999999933</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39.251999999999974</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>149.71100000000007</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>179.67900000000006</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>101.33799999999995</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
-        <f t="shared" ref="L18:Q18" si="8">+L16-L17</f>
+        <f t="shared" ref="L18:Q18" si="10">+L16-L17</f>
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>250.52399999999994</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>153.65199999999993</v>
       </c>
       <c r="R18" s="3">
@@ -2017,8 +2167,8 @@
         <v>293.7819999999997</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" ref="S18" si="9">+S16-S17</f>
-        <v>0</v>
+        <f t="shared" ref="S18" si="11">+S16-S17</f>
+        <v>469.98000000000013</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2062,7 +2212,10 @@
       <c r="E19" s="3">
         <v>36.225499999999997</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>25.810500000000019</v>
+      </c>
       <c r="G19" s="3">
         <v>19.132999999999999</v>
       </c>
@@ -2072,7 +2225,10 @@
       <c r="I19" s="3">
         <v>50.451000000000001</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <f>+S19-SUM(G19:I19)</f>
+        <v>7.4710000000000178</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2087,7 +2243,9 @@
       <c r="R19" s="3">
         <v>102.18</v>
       </c>
-      <c r="S19" s="3"/>
+      <c r="S19" s="3">
+        <v>121.65300000000001</v>
+      </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -2122,60 +2280,60 @@
         <v>43</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:J20" si="10">+C18-C19</f>
+        <f t="shared" ref="C20:J20" si="12">+C18-C19</f>
         <v>-7.1540000000000044</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71.652000000000029</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>74.669500000000042</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>52.434499999999915</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20.118999999999975</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>105.11300000000007</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>129.22800000000007</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>93.866999999999933</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3">
-        <f t="shared" ref="L20:Q20" si="11">+L18-L19</f>
+        <f t="shared" ref="L20:Q20" si="13">+L18-L19</f>
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>187.11099999999993</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75.021999999999935</v>
       </c>
       <c r="R20" s="3">
@@ -2183,8 +2341,8 @@
         <v>191.60199999999969</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" ref="S20" si="12">+S18-S19</f>
-        <v>0</v>
+        <f t="shared" ref="S20" si="14">+S18-S19</f>
+        <v>348.32700000000011</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2267,36 +2425,36 @@
         <v>44</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:J22" si="13">+C20/C23</f>
+        <f t="shared" ref="C22:J22" si="15">+C20/C23</f>
         <v>-3.8273026460271399E-2</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.38148156083011325</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.39754309164107926</v>
       </c>
-      <c r="F22" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="F22" s="8">
+        <f t="shared" si="15"/>
+        <v>0.2795025571436256</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.10711326985246934</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.55962011700395797</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.6929882882147882</v>
       </c>
-      <c r="J22" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="J22" s="8">
+        <f t="shared" si="15"/>
+        <v>0.50328803914343101</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="8" t="e">
@@ -2304,30 +2462,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="8" t="e">
-        <f t="shared" ref="M22:Q22" si="14">+M20/M23</f>
+        <f t="shared" ref="M22:Q22" si="16">+M20/M23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0240236323973686</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.41058142466084485</v>
       </c>
       <c r="R22" s="8">
         <f>+R20/R23</f>
         <v>1.0213361232362843</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="8">
+        <f>+S20/S23</f>
+        <v>1.8676298679058039</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2370,7 +2531,10 @@
       <c r="E23" s="3">
         <v>187.827437</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <f>+R23</f>
+        <v>187.599357</v>
+      </c>
       <c r="G23" s="3">
         <v>187.82920200000001</v>
       </c>
@@ -2380,7 +2544,9 @@
       <c r="I23" s="3">
         <v>186.479342</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <v>186.50751199999999</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2395,7 +2561,9 @@
       <c r="R23" s="3">
         <v>187.599357</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="3">
+        <v>186.50751199999999</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -2485,37 +2653,37 @@
         <v>0.16118223451802938</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" ref="H25:J29" si="15">+H5/D5-1</f>
+        <f t="shared" ref="H25:J29" si="17">+H5/D5-1</f>
         <v>0.23018665910898028</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.10394004206953844</v>
       </c>
-      <c r="J25" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="J25" s="9">
+        <f t="shared" si="17"/>
+        <v>0.11021273952055965</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="9" t="e">
-        <f t="shared" ref="M25:Q29" si="16">+M5/L5-1</f>
+        <f t="shared" ref="M25:Q29" si="18">+M5/L5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.20573220635103784</v>
       </c>
       <c r="R25" s="9">
@@ -2524,7 +2692,7 @@
       </c>
       <c r="S25" s="9">
         <f>+S5/R5-1</f>
-        <v>-1</v>
+        <v>0.15042968708607507</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2564,50 +2732,50 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="9">
-        <f t="shared" ref="G26:G29" si="17">+G6/C6-1</f>
+        <f t="shared" ref="G26:G29" si="19">+G6/C6-1</f>
         <v>0.17401288730463382</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.12308000780924333</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.12903408892459223</v>
       </c>
-      <c r="J26" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="J26" s="9">
+        <f t="shared" si="17"/>
+        <v>0.52041529471947445</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.17895892289777371</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" ref="R26:S29" si="18">+R6/Q6-1</f>
+        <f t="shared" ref="R26:S29" si="20">+R6/Q6-1</f>
         <v>0.21790269061598821</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" si="18"/>
-        <v>-1</v>
+        <f t="shared" si="20"/>
+        <v>0.21762228479984125</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -2647,50 +2815,50 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="9">
+        <f t="shared" si="19"/>
+        <v>0.46811494826081534</v>
+      </c>
+      <c r="H27" s="9">
         <f t="shared" si="17"/>
-        <v>0.46811494826081534</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="15"/>
         <v>0.30186213655668093</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.21393436323111215</v>
       </c>
-      <c r="J27" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="J27" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.29931830676195714</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.23888712784374921</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.38961056001679517</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" si="18"/>
-        <v>-1</v>
+        <f t="shared" si="20"/>
+        <v>4.7297105896794367E-2</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -2730,50 +2898,50 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.3776223776223776</v>
+      </c>
+      <c r="H28" s="9">
         <f t="shared" si="17"/>
-        <v>-0.3776223776223776</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="15"/>
         <v>0.20485744456177413</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.24219725343320841</v>
       </c>
-      <c r="J28" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="J28" s="9">
+        <f t="shared" si="17"/>
+        <v>1.0829629629629629</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="9" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.61182205971968306</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.19054820415879015</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" si="18"/>
-        <v>-1</v>
+        <f t="shared" si="20"/>
+        <v>9.7384399813171374E-2</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -2813,50 +2981,50 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="10">
+        <f t="shared" si="19"/>
+        <v>0.19409158732883491</v>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="17"/>
-        <v>0.19409158732883491</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="15"/>
         <v>0.19342786611365548</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.12444976432383426</v>
       </c>
-      <c r="J29" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="J29" s="10">
+        <f t="shared" si="17"/>
+        <v>0.1548476843278539</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.20041147925747071</v>
       </c>
       <c r="R29" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.20964990538979866</v>
       </c>
       <c r="S29" s="10">
-        <f t="shared" si="18"/>
-        <v>-1</v>
+        <f t="shared" si="20"/>
+        <v>0.16221013027168119</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -2892,20 +3060,20 @@
         <v>50</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" ref="C30:F30" si="19">+C11/C9</f>
+        <f t="shared" ref="C30:F30" si="21">+C11/C9</f>
         <v>0.61027848569278109</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.56345637556000705</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.59481229128228386</v>
       </c>
-      <c r="F30" s="9" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="F30" s="9">
+        <f t="shared" si="21"/>
+        <v>0.58961216770082747</v>
       </c>
       <c r="G30" s="9">
         <f>+G11/G9</f>
@@ -2919,42 +3087,42 @@
         <f>+I11/I9</f>
         <v>0.60480724109586459</v>
       </c>
-      <c r="J30" s="9" t="e">
+      <c r="J30" s="9">
         <f>+J11/J9</f>
-        <v>#DIV/0!</v>
+        <v>0.58141346435180441</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="9" t="e">
-        <f t="shared" ref="L30:S30" si="20">+L11/L9</f>
+        <f t="shared" ref="L30:S30" si="22">+L11/L9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.60330068480640597</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.62054170791689311</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.58773362738198787</v>
       </c>
-      <c r="S30" s="9" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+      <c r="S30" s="9">
+        <f t="shared" si="22"/>
+        <v>0.59105981656590045</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -2990,20 +3158,20 @@
         <v>51</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" ref="C31:F31" si="21">+C16/C9</f>
+        <f t="shared" ref="C31:F31" si="23">+C16/C9</f>
         <v>0.11742219170485005</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.27535096541463377</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.27529136373455537</v>
       </c>
-      <c r="F31" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+      <c r="F31" s="9">
+        <f t="shared" si="23"/>
+        <v>0.21398794112742545</v>
       </c>
       <c r="G31" s="9">
         <f>+G16/G9</f>
@@ -3017,42 +3185,42 @@
         <f>+I16/I9</f>
         <v>0.31176048198386885</v>
       </c>
-      <c r="J31" s="9" t="e">
+      <c r="J31" s="9">
         <f>+J16/J9</f>
-        <v>#DIV/0!</v>
+        <v>0.21319000338185717</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="9" t="e">
-        <f t="shared" ref="L31:S31" si="22">+L16/L9</f>
+        <f t="shared" ref="L31:S31" si="24">+L16/L9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.29209636371097319</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.17473428374748889</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.23332649928796623</v>
       </c>
-      <c r="S31" s="9" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+      <c r="S31" s="9">
+        <f t="shared" si="24"/>
+        <v>0.26200839217918703</v>
       </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -3088,20 +3256,20 @@
         <v>52</v>
       </c>
       <c r="C32" s="9">
-        <f t="shared" ref="C32:F32" si="23">+C19/C18</f>
+        <f t="shared" ref="C32:F32" si="25">+C19/C18</f>
         <v>-13.904166666666551</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.31839196362321864</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.3266648631588438</v>
       </c>
-      <c r="F32" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+      <c r="F32" s="9">
+        <f t="shared" si="25"/>
+        <v>0.32986772317720037</v>
       </c>
       <c r="G32" s="9">
         <f>+G19/G18</f>
@@ -3115,42 +3283,42 @@
         <f>+I19/I18</f>
         <v>0.28078406491576635</v>
       </c>
-      <c r="J32" s="9" t="e">
+      <c r="J32" s="9">
         <f>+J19/J18</f>
-        <v>#DIV/0!</v>
+        <v>7.3723578519410499E-2</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="9" t="e">
-        <f t="shared" ref="L32:S32" si="24">+L19/L18</f>
+        <f t="shared" ref="L32:S32" si="26">+L19/L18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.25312145742523673</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.51174081691094186</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.34780891953897825</v>
       </c>
-      <c r="S32" s="9" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+      <c r="S32" s="9">
+        <f t="shared" si="26"/>
+        <v>0.25884718498659509</v>
       </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
